--- a/data/inputs/lci_solarpv_huimin_masterthesis_combined.xlsx
+++ b/data/inputs/lci_solarpv_huimin_masterthesis_combined.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treyer_k\Documents\GitHub\moeschpond\data\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL268686\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Refined Multi-Si" sheetId="1" r:id="rId1"/>
@@ -858,7 +858,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1126,7 +1126,7 @@
       <selection activeCell="A313" sqref="A313"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="77.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.109375" customWidth="1"/>
